--- a/timereport.xlsx
+++ b/timereport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
   <si>
     <t>Time</t>
   </si>
@@ -38,16 +38,40 @@
     <t>World_Plan_Pg_Load_Time</t>
   </si>
   <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>6.89</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>6.08</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Malaysia_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>Philippines_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>Sri_Lanka_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>Turkey_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>India_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>Rwanda_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>Singapore_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>QN_Europe_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t>My_Network_Plan_Pg_Load_Time</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -97,6 +121,14 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="5.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.05078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.44921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -129,13 +161,413 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/timereport.xlsx
+++ b/timereport.xlsx
@@ -108,7 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>

--- a/timereport.xlsx
+++ b/timereport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Time</t>
   </si>
@@ -38,40 +38,193 @@
     <t>World_Plan_Pg_Load_Time</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>12.56</t>
+  </si>
+  <si>
+    <t>6.89</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>6.08</t>
   </si>
   <si>
     <t>Malaysia_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>6.64</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>6.74</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
     <t>Philippines_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
     <t>Sri_Lanka_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
     <t>Turkey_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
     <t>India_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>6.52</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
     <t>Rwanda_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.86</t>
+  </si>
+  <si>
     <t>Singapore_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
     <t>QN_Europe_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>7.39</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
     <t>My_Network_Plan_Pg_Load_Time</t>
   </si>
   <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>14.56</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>5.96</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>5.23</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>5.21</t>
   </si>
 </sst>
 </file>
@@ -88,12 +241,26 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis"/>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor indexed="10"/>
+        <bgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,7 +277,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -158,17 +325,17 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -176,19 +343,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -196,19 +363,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -216,19 +383,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -236,19 +403,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -256,19 +423,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -276,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -296,19 +463,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -316,19 +483,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -336,239 +503,239 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
